--- a/resourse/student-data (1).xlsx
+++ b/resourse/student-data (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skill-enhancer-boot\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\priya\sts-workspace\skill-enhancer-boot\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA4A19-6B02-4733-8141-1E1CBC9CAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F1F6992B-A482-4E57-9EF6-BA027DAD9446}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -210,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,23 +641,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B8F37C-E631-43C6-BB1F-3CE69E687451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="126" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -692,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -709,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -726,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -743,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -760,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -777,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -794,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -811,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -828,7 +827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -845,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -864,17 +863,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:ram@gmail.com" xr:uid="{D84FD8C4-610A-42DD-B426-FF7C0B392788}"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:aditi@gmail.com" xr:uid="{F0E38884-D639-4AFA-83C0-D707C10B3B46}"/>
-    <hyperlink ref="E4" r:id="rId3" display="mailto:mohit@gmail.com" xr:uid="{3D9836C4-3234-47C5-A6C9-897A298DF632}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mailto:karan@gmail.com" xr:uid="{5B9D98BC-B5D0-42F7-BE9D-82C11D73A0EF}"/>
-    <hyperlink ref="E6" r:id="rId5" display="mailto:naresh@gmail.com" xr:uid="{058A5E8D-B0E4-4437-875E-14AE60E83006}"/>
-    <hyperlink ref="E7" r:id="rId6" display="mailto:akshat@gmail.com" xr:uid="{8421AAF5-03BD-46B1-86A5-06D8A1691F96}"/>
-    <hyperlink ref="E8" r:id="rId7" display="mailto:aman@gmail.com" xr:uid="{833275A5-2D4E-4DB2-8EA8-07FDA5A233E5}"/>
-    <hyperlink ref="E9" r:id="rId8" display="mailto:kunal@gmail.com" xr:uid="{2D421E66-5A49-4439-9554-942DDF8F1898}"/>
-    <hyperlink ref="E10" r:id="rId9" display="mailto:sakshi@gmail.com" xr:uid="{98F5AC26-889E-48AF-BDD5-CAA9087DB032}"/>
-    <hyperlink ref="E11" r:id="rId10" display="mailto:nikhil@gmail.com" xr:uid="{BAA49D21-7F1B-47D9-B9F6-E987199E0EE7}"/>
-    <hyperlink ref="E12" r:id="rId11" display="mailto:divesh@gmail.com" xr:uid="{D2BC7938-B5A0-4FBB-A441-3E88B9D12BD5}"/>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:ram@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:aditi@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:mohit@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:karan@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:naresh@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:akshat@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId7" display="mailto:aman@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:kunal@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId9" display="mailto:sakshi@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId10" display="mailto:nikhil@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId11" display="mailto:divesh@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -882,23 +881,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B927000-5B53-4DC7-A16C-A6E1A6826AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -932,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -949,7 +948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -966,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -983,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1138,19 +1137,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{ACBBC0BD-A185-4F01-B065-81ACDE9B3D58}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F2A7BEE7-4CFD-42FB-B425-9DE784212D8F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2221D1C0-DB8C-4642-A4DD-D6A7E4EA4B2F}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{374CEE28-3A0C-4464-B45C-E7D97F620904}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{623C01B7-0371-41E9-B9E5-F2C81574C409}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{61B5D5AF-AE7D-4E74-8A2B-1608D09EA198}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{2AE58D04-37A9-463D-9A44-CE43F2D8AE10}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{027685E0-E10B-44C5-A4F9-43F5E4ECCA66}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{C666B00A-959E-4788-A745-DE835BB683BB}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{AE96FE9D-3A7A-499D-9A6A-BD8963F5C996}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{F2BEF43D-6718-4782-B225-ACC19315D0FF}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{A815BC57-8784-43C9-9D44-FCA674120FC8}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{A7871CBA-BBA1-4A82-B4F9-EB06287DA72C}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -1158,15 +1157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EE3F516641E6749AAF478748140BC9F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f34abc3372502f3aff2a3748ecdfaaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d6adb12b-0970-432b-b11b-78114fd2e7be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="adbd416617b9dca5eea4f7db275825c3" ns3:_="">
     <xsd:import namespace="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
@@ -1298,6 +1288,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1305,14 +1304,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9609FD08-C3F8-49F4-89C3-72503EEF69B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1326,6 +1317,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
